--- a/classfiers/bloated/MLP/smote/bloated-mlp-smote-results.xlsx
+++ b/classfiers/bloated/MLP/smote/bloated-mlp-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8515625</v>
+        <v>0.8007246376811594</v>
       </c>
       <c r="C2" t="n">
-        <v>0.990909090909091</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9159663865546219</v>
+        <v>0.8893360160965795</v>
       </c>
       <c r="E2" t="n">
-        <v>0.987210743801653</v>
+        <v>0.9719497962777175</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8081180811808119</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9954545454545455</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8920570264765785</v>
+        <v>0.9821428571428572</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9498760330578513</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9649122807017544</v>
+        <v>0.9821428571428571</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9821428571428572</v>
+        <v>0.9909909909909909</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9978925619834711</v>
+        <v>0.9996709173179762</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9904761904761905</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9497716894977168</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9954545454545455</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -546,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9864253393665159</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9931662870159453</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9230138104717514</v>
+        <v>0.9495559551051542</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9872270651722707</v>
+        <v>0.9972850678733032</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9519726479742054</v>
+        <v>0.9711272302492746</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9860867768595043</v>
+        <v>0.9943241427191388</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bloated/MLP/smote/bloated-mlp-smote-results.xlsx
+++ b/classfiers/bloated/MLP/smote/bloated-mlp-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8007246376811594</v>
+        <v>0.8072289156626506</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8893360160965795</v>
+        <v>0.8933333333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9719497962777175</v>
+        <v>0.9678225786490433</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9649122807017544</v>
+        <v>0.9009009009009009</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9821428571428572</v>
+        <v>0.947867298578199</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9996766169154229</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9821428571428571</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9909909909909909</v>
+        <v>0.9876543209876543</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9996709173179762</v>
+        <v>0.9990796019900497</v>
       </c>
     </row>
     <row r="5">
@@ -527,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9850746268656716</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.9924812030075187</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9864253393665159</v>
+        <v>0.9950248756218906</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9931662870159453</v>
+        <v>0.9975062344139651</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9495559551051542</v>
+        <v>0.9367479145322225</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9972850678733032</v>
+        <v>0.9960199004975123</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9711272302492746</v>
+        <v>0.963768478064134</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9943241427191388</v>
+        <v>0.9933157595109032</v>
       </c>
     </row>
   </sheetData>
